--- a/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200321.xlsx
+++ b/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200321.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\jiangsu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7684AB-5C28-4A85-9132-BA061A1BD9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="5" r:id="rId1"/>
@@ -382,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9438" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9451" uniqueCount="3303">
   <si>
     <t>序号</t>
   </si>
@@ -10288,21 +10294,20 @@
   </si>
   <si>
     <t>吉木乃县</t>
+  </si>
+  <si>
+    <t>区县级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10365,146 +10370,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10517,23 +10395,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10552,194 +10415,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10747,249 +10424,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11025,17 +10463,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11046,66 +10484,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11363,55 +10758,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.9090909090909" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.9090909090909" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.9090909090909" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.3636363636364" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="12" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.0909090909091" style="12" customWidth="1"/>
-    <col min="9" max="16" width="12.4545454545455" style="12" customWidth="1"/>
-    <col min="17" max="18" width="26.6363636363636" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="12" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="12" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="12" customWidth="1"/>
     <col min="19" max="19" width="25" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.9090909090909" style="13" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="13" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" customWidth="1"/>
-    <col min="22" max="22" width="51.9090909090909" style="12" customWidth="1"/>
-    <col min="23" max="23" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.0909090909091" style="12" customWidth="1"/>
+    <col min="22" max="22" width="51.90625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="27" max="27" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="28" max="28" width="20.9090909090909" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.9090909090909" style="12"/>
+    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="16.2" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11533,7 +10928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:40">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -11573,7 +10968,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>44</v>
@@ -11583,7 +10978,7 @@
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA2" s="12" t="s">
         <v>46</v>
@@ -11595,7 +10990,7 @@
         <v>48</v>
       </c>
       <c r="AD2" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE2" s="12" t="s">
         <v>46</v>
@@ -11609,7 +11004,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:40">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -11643,7 +11038,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>44</v>
@@ -11652,7 +11047,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>46</v>
@@ -11664,7 +11059,7 @@
         <v>48</v>
       </c>
       <c r="AD3" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>46</v>
@@ -11676,7 +11071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:40">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -11710,7 +11105,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>44</v>
@@ -11719,7 +11114,7 @@
         <v>45</v>
       </c>
       <c r="Z4" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>46</v>
@@ -11731,7 +11126,7 @@
         <v>48</v>
       </c>
       <c r="AD4" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE4" s="12" t="s">
         <v>46</v>
@@ -11743,7 +11138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:40">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11777,7 +11172,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>44</v>
@@ -11786,7 +11181,7 @@
         <v>45</v>
       </c>
       <c r="Z5" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>46</v>
@@ -11798,7 +11193,7 @@
         <v>48</v>
       </c>
       <c r="AD5" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE5" s="12" t="s">
         <v>46</v>
@@ -11810,7 +11205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:40">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -11844,7 +11239,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>44</v>
@@ -11853,7 +11248,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>46</v>
@@ -11865,7 +11260,7 @@
         <v>48</v>
       </c>
       <c r="AD6" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE6" s="12" t="s">
         <v>46</v>
@@ -11877,7 +11272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:40">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -11911,7 +11306,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>44</v>
@@ -11920,7 +11315,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>46</v>
@@ -11932,7 +11327,7 @@
         <v>48</v>
       </c>
       <c r="AD7" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>46</v>
@@ -11944,7 +11339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:40">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11978,7 +11373,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>44</v>
@@ -11987,7 +11382,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>46</v>
@@ -11999,7 +11394,7 @@
         <v>48</v>
       </c>
       <c r="AD8" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>46</v>
@@ -12011,7 +11406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:40">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -12045,7 +11440,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>44</v>
@@ -12054,7 +11449,7 @@
         <v>45</v>
       </c>
       <c r="Z9" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>46</v>
@@ -12066,7 +11461,7 @@
         <v>48</v>
       </c>
       <c r="AD9" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE9" s="12" t="s">
         <v>46</v>
@@ -12078,7 +11473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:40">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -12112,7 +11507,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>44</v>
@@ -12121,7 +11516,7 @@
         <v>45</v>
       </c>
       <c r="Z10" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>46</v>
@@ -12133,7 +11528,7 @@
         <v>48</v>
       </c>
       <c r="AD10" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE10" s="12" t="s">
         <v>46</v>
@@ -12145,7 +11540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:40">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -12179,7 +11574,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>44</v>
@@ -12188,7 +11583,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>46</v>
@@ -12200,7 +11595,7 @@
         <v>48</v>
       </c>
       <c r="AD11" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE11" s="12" t="s">
         <v>46</v>
@@ -12212,7 +11607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:40">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -12246,7 +11641,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>44</v>
@@ -12255,7 +11650,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA12" s="12" t="s">
         <v>46</v>
@@ -12267,7 +11662,7 @@
         <v>48</v>
       </c>
       <c r="AD12" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE12" s="12" t="s">
         <v>46</v>
@@ -12279,7 +11674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:40">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -12313,7 +11708,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>44</v>
@@ -12322,7 +11717,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA13" s="12" t="s">
         <v>46</v>
@@ -12334,7 +11729,7 @@
         <v>48</v>
       </c>
       <c r="AD13" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>46</v>
@@ -12346,7 +11741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:40">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -12380,7 +11775,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>44</v>
@@ -12389,7 +11784,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA14" s="12" t="s">
         <v>46</v>
@@ -12401,7 +11796,7 @@
         <v>48</v>
       </c>
       <c r="AD14" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>46</v>
@@ -12413,7 +11808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:40">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -12447,7 +11842,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>44</v>
@@ -12456,7 +11851,7 @@
         <v>45</v>
       </c>
       <c r="Z15" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA15" s="12" t="s">
         <v>46</v>
@@ -12468,7 +11863,7 @@
         <v>48</v>
       </c>
       <c r="AD15" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>46</v>
@@ -12480,7 +11875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:40">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -12509,7 +11904,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>44</v>
@@ -12518,7 +11913,7 @@
         <v>45</v>
       </c>
       <c r="Z16" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>46</v>
@@ -12530,7 +11925,7 @@
         <v>48</v>
       </c>
       <c r="AD16" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE16" s="12" t="s">
         <v>46</v>
@@ -12543,7 +11938,7 @@
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="12">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -12564,20 +11959,17 @@
       <c r="G17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="I17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>43</v>
       </c>
       <c r="T17" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>44</v>
@@ -12586,7 +11978,7 @@
         <v>45</v>
       </c>
       <c r="Z17" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>46</v>
@@ -12598,7 +11990,7 @@
         <v>48</v>
       </c>
       <c r="AD17" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>46</v>
@@ -12615,7 +12007,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>51</v>
+        <v>3302</v>
       </c>
       <c r="C18" s="17">
         <v>43911</v>
@@ -12633,7 +12025,7 @@
         <v>66</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
@@ -12645,7 +12037,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="13">
-        <v>43912.4124537037</v>
+        <v>43912.412453703699</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>44</v>
@@ -12654,7 +12046,7 @@
         <v>45</v>
       </c>
       <c r="Z18" s="23">
-        <v>43912.5013888889</v>
+        <v>43912.501388888901</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>46</v>
@@ -12666,7 +12058,7 @@
         <v>48</v>
       </c>
       <c r="AD18" s="13">
-        <v>43912.5208333333</v>
+        <v>43912.520833333299</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>46</v>
@@ -12678,54 +12070,120 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="6:30">
-      <c r="F19" s="3"/>
-      <c r="AD19" s="13"/>
+    <row r="19" spans="1:33">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C19" s="17">
+        <v>43911</v>
+      </c>
+      <c r="D19" s="17">
+        <v>43912</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="13">
+        <v>43912.412453703699</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="23">
+        <v>43912.501388888901</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>43912.520833333299</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="F20" s="3"/>
+      <c r="AD20" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J15 L3:L15 N3:N15 I16:R1048576 P3:R15">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 L3:L15 N3:N15 P3:R15 I16:R1048576 J2:J15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G1048576">
-      <formula1>INDIRECT($F19)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA16 AA17 AA18 AA2:AA15 AA19:AA1048576 AE2:AE14 AE15:AE18 AE19:AE1048576 AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B17 B18 B2:B16 B19:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>INDIRECT($F20)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG14 AG15:AG18 AG19:AG1048576 AM2:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC14 AC15:AC18 AC19:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37150,7 +36608,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>83</v>
       </c>
@@ -60009,8 +59467,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>